--- a/lotteries/zone.xlsx
+++ b/lotteries/zone.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -16,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -38,14 +39,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -66,8 +68,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,6 +84,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -88,9 +99,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,8 +122,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,22 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -159,23 +162,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,12 +191,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -208,7 +305,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,151 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,11 +391,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -409,16 +416,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,6 +447,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -448,42 +466,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,10 +496,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -507,144 +508,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,7 +973,7 @@
   <sheetPr/>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
@@ -1086,74 +1090,275 @@
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AD2" s="2"/>
+      <c r="A2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AD2" s="3"/>
     </row>
     <row r="3" spans="18:29">
-      <c r="R3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="AC3" s="2"/>
+      <c r="R3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="10:30">
-      <c r="J5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="AD5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="AD5" s="3"/>
     </row>
     <row r="6" spans="9:31">
-      <c r="I6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AE6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="8:17">
-      <c r="H7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="14:28">
-      <c r="N8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="N8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="12:24">
-      <c r="L9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AF10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="19:33">
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AG11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AG11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AG11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.00833333333333" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="3.00833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+      <c r="Z1">
+        <v>26</v>
+      </c>
+      <c r="AA1">
+        <v>27</v>
+      </c>
+      <c r="AB1">
+        <v>28</v>
+      </c>
+      <c r="AC1">
+        <v>29</v>
+      </c>
+      <c r="AD1">
+        <v>30</v>
+      </c>
+      <c r="AE1">
+        <v>31</v>
+      </c>
+      <c r="AF1">
+        <v>32</v>
+      </c>
+      <c r="AG1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21">
+      <c r="B2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="2:28">
+      <c r="B3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="12:31">
+      <c r="L4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="6:27">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="5:31">
+      <c r="E7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="4:25">
+      <c r="D8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="18:31">
+      <c r="R10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="13:28">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="AB11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/lotteries/zone.xlsx
+++ b/lotteries/zone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,14 +32,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -48,6 +63,52 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,6 +129,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -76,107 +152,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +190,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +256,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,37 +298,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,97 +346,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,6 +381,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -410,7 +442,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,21 +462,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -452,30 +469,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,10 +489,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,144 +501,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -971,10 +961,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75833333333333" defaultRowHeight="13.5"/>
@@ -1089,75 +1079,83 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AD2" s="3"/>
-    </row>
-    <row r="3" spans="18:29">
-      <c r="R3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="AC3" s="3"/>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="AB4" s="3"/>
-    </row>
-    <row r="5" spans="10:30">
-      <c r="J5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="AD5" s="3"/>
-    </row>
-    <row r="6" spans="9:31">
-      <c r="I6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AE6" s="3"/>
-    </row>
-    <row r="7" spans="8:17">
-      <c r="H7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="14:28">
-      <c r="N8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="AB8" s="3"/>
-    </row>
-    <row r="9" spans="12:24">
-      <c r="L9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AF10" s="3"/>
-    </row>
-    <row r="11" spans="19:33">
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AG11" s="3"/>
+    <row r="2" spans="5:28">
+      <c r="E2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="18:29">
+      <c r="R4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="AB5" s="2"/>
+    </row>
+    <row r="6" spans="10:30">
+      <c r="J6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="9:31">
+      <c r="I7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="8" spans="8:17">
+      <c r="H8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="14:28">
+      <c r="N9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="AB9" s="2"/>
+    </row>
+    <row r="10" spans="12:24">
+      <c r="L10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AF11" s="2"/>
+    </row>
+    <row r="12" spans="19:33">
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AG12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1170,7 +1168,7 @@
   <sheetPr/>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>

--- a/lotteries/zone.xlsx
+++ b/lotteries/zone.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="D" sheetId="1" r:id="rId1"/>
+    <sheet name="F" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -17,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -31,8 +31,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -46,28 +54,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -93,14 +79,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,22 +152,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,38 +161,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,13 +196,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,13 +256,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,121 +364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +408,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -419,6 +428,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,30 +473,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -472,15 +481,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -489,10 +489,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -501,133 +501,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -961,15 +961,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75833333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="3.75833333333333" customWidth="1"/>
+    <col min="1" max="35" width="3.00833333333333" customWidth="1"/>
+    <col min="36" max="16384" width="3.75833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -1079,83 +1080,90 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="5:28">
-      <c r="E2" s="2"/>
+    <row r="2" spans="11:30">
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="AB2" s="2"/>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="18:29">
-      <c r="R4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="AC4" s="2"/>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="AB5" s="2"/>
-    </row>
-    <row r="6" spans="10:30">
-      <c r="J6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="AD6" s="2"/>
-    </row>
-    <row r="7" spans="9:31">
-      <c r="I7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AE7" s="2"/>
-    </row>
-    <row r="8" spans="8:17">
-      <c r="H8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="5:28">
+      <c r="E3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="18:29">
+      <c r="R5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="AB6" s="2"/>
+    </row>
+    <row r="7" spans="10:30">
+      <c r="J7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="9:31">
+      <c r="I8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="14:28">
-      <c r="N9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="AB9" s="2"/>
-    </row>
-    <row r="10" spans="12:24">
-      <c r="L10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="A11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AE8" s="2"/>
+    </row>
+    <row r="9" spans="8:17">
+      <c r="H9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="14:28">
+      <c r="N10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="AB10" s="2"/>
+    </row>
+    <row r="11" spans="12:24">
+      <c r="L11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AF11" s="2"/>
-    </row>
-    <row r="12" spans="19:33">
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AG12" s="2"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AF12" s="2"/>
+    </row>
+    <row r="13" spans="19:33">
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AG13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1169,7 +1177,7 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="AG1" sqref="I1:AG35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.00833333333333" defaultRowHeight="13.5"/>

--- a/lotteries/zone.xlsx
+++ b/lotteries/zone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -46,11 +69,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -78,48 +128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -138,14 +146,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +196,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -220,6 +232,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -250,30 +280,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -286,6 +292,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,66 +359,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,6 +381,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,41 +447,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,10 +489,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -501,133 +501,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -963,8 +963,8 @@
   <sheetPr/>
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75833333333333" defaultRowHeight="13.5"/>
@@ -1174,10 +1174,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG1" sqref="I1:AG35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.00833333333333" defaultRowHeight="13.5"/>
@@ -1286,85 +1286,101 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:21">
-      <c r="B2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="H2" s="1"/>
+    <row r="2" spans="1:29">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="2:28">
-      <c r="B3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="AB3" s="1"/>
-    </row>
-    <row r="4" spans="12:31">
+      <c r="R2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="2:28">
+      <c r="B5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="V5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="6:27">
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="12:31">
       <c r="L6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="5:31">
-      <c r="E7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="V7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="4:25">
-      <c r="D8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:32">
-      <c r="A9" s="1"/>
-      <c r="I9" s="1"/>
+    <row r="8" spans="6:27">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="5:31">
+      <c r="E9" s="1"/>
+      <c r="J9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="18:31">
-      <c r="R10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-    </row>
-    <row r="11" spans="13:28">
+      <c r="X9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="4:25">
+      <c r="D10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
       <c r="AB11" s="1"/>
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="18:31">
+      <c r="R12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="13:28">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="AB13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/lotteries/zone.xlsx
+++ b/lotteries/zone.xlsx
@@ -17,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -32,7 +32,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -55,60 +116,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,17 +139,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,22 +170,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,181 +196,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,17 +384,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -410,15 +419,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,9 +440,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,32 +481,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -489,10 +489,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -501,10 +501,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -513,121 +513,121 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,10 +1174,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.00833333333333" defaultRowHeight="13.5"/>
@@ -1286,101 +1286,109 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="2:31">
+      <c r="B2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="AC2" s="1"/>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="V2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="2:21">
-      <c r="B4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="2:28">
+      <c r="J3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="2:21">
       <c r="B5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="AB5" s="1"/>
-    </row>
-    <row r="6" spans="12:31">
-      <c r="L6" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="2:28">
+      <c r="B6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="T6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="12:31">
+      <c r="L7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="T7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="Y7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="6:27">
-      <c r="F8" s="1"/>
+    <row r="8" spans="1:31">
+      <c r="A8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="X8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="5:31">
-      <c r="E9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="X9" s="1"/>
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="6:27">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="T9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="4:25">
-      <c r="D10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="A11" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="5:31">
+      <c r="E10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="4:25">
+      <c r="D11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AF11" s="1"/>
-    </row>
-    <row r="12" spans="18:31">
-      <c r="R12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-    </row>
-    <row r="13" spans="13:28">
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="18:31">
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="13:28">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="AB14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/lotteries/zone.xlsx
+++ b/lotteries/zone.xlsx
@@ -18,14 +18,21 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -153,23 +160,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +203,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -208,30 +245,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -244,19 +293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,6 +305,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -280,7 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,85 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,10 +496,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -501,141 +508,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -954,7 +964,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1081,89 +1090,89 @@
       </c>
     </row>
     <row r="2" spans="11:30">
-      <c r="K2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AD2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AD2" s="3"/>
     </row>
     <row r="3" spans="5:28">
-      <c r="E3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AD4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AD4" s="3"/>
     </row>
     <row r="5" spans="18:29">
-      <c r="R5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="AC5" s="2"/>
+      <c r="R5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="10:30">
-      <c r="J7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="AD7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="AD7" s="3"/>
     </row>
     <row r="8" spans="9:31">
-      <c r="I8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AE8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AE8" s="3"/>
     </row>
     <row r="9" spans="8:17">
-      <c r="H9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="14:28">
-      <c r="N10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="N10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="12:24">
-      <c r="L11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AF12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AF12" s="3"/>
     </row>
     <row r="13" spans="19:33">
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AG13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AG13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1174,10 +1183,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AG14"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.00833333333333" defaultRowHeight="13.5"/>
@@ -1286,109 +1295,126 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:31">
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="U2" s="2"/>
       <c r="V2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="2:31">
+      <c r="B3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="W3" s="1"/>
       <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="2:31">
+      <c r="B4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="2:21">
-      <c r="B5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="2:28">
-      <c r="B6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="AB6" s="1"/>
-    </row>
-    <row r="7" spans="12:31">
+      <c r="R5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="2:28">
+      <c r="B8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="P8" s="1"/>
       <c r="V8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="6:27">
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="12:31">
       <c r="L9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="5:31">
-      <c r="E10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="V10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="4:25">
-      <c r="D11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="1"/>
-      <c r="I12" s="1"/>
+    <row r="11" spans="6:27">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="5:31">
+      <c r="E12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AF12" s="1"/>
-    </row>
-    <row r="13" spans="18:31">
-      <c r="R13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="13:28">
+      <c r="X12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="4:25">
+      <c r="D13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
       <c r="AB14" s="1"/>
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="15" spans="18:31">
+      <c r="R15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="13:28">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="AB16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
